--- a/biology/Zoologie/Granulifusus/Granulifusus.xlsx
+++ b/biology/Zoologie/Granulifusus/Granulifusus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Granulifusus est un genre d'escargots de mer de la sous-famille des Fusininae dans la famille des Fasciolariidae[1]. La plupart des espèces de ce genre vivent dans le Pacifique ou dans l'Océan Indien.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Granulifusus est un genre d'escargots de mer de la sous-famille des Fusininae dans la famille des Fasciolariidae. La plupart des espèces de ce genre vivent dans le Pacifique ou dans l'Océan Indien.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Granulifusus a été créé en 1954 par les malacologistes japonais Tokubei Kuroda (1886-1987) et Tadashige Habe (d) (1916-2001) avec pour espèce type Fusus niponicus E. A. Smith, 1879, rebaptisée  Granulifusus niponicus (E.A. Smith, 1879)[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Granulifusus a été créé en 1954 par les malacologistes japonais Tokubei Kuroda (1886-1987) et Tadashige Habe (d) (1916-2001) avec pour espèce type Fusus niponicus E. A. Smith, 1879, rebaptisée  Granulifusus niponicus (E.A. Smith, 1879),.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (16 septembre 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (16 septembre 2022) :
 Granulifusus amoenus Hadorn &amp; Fraussen, 2005
 Granulifusus annae Kantor, Fedosov, Snyder &amp; Bouchet, 2018
 Granulifusus babae Hadorn &amp; Fraussen, 2005
@@ -612,7 +628,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en + ja) Tokubei Kuroda et Tadashige Habe, « New Genera of Japanese Marine Gastropods », Venus, Malacological Society of Japan (d), vol. 18, no 2,‎ 1954, p. 84-97 (ISSN 2433-0698, lire en ligne)</t>
         </is>
